--- a/TEST/Initial_Test_DATA.xlsx
+++ b/TEST/Initial_Test_DATA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGTSeo\Documents\GitHub\sinsudong-crusher-home_1\TEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CC7E9AD-A651-4249-8B62-33E4709E8AAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92C86DB-3D32-4295-97BB-39C48F1F7772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17620" xr2:uid="{D8C9DEB1-C547-4CCE-B61F-4D7B0E8883F6}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="97">
   <si>
     <t>여행출발 월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -330,6 +330,81 @@
   <si>
     <t>지역추천모델 유효성을 검사하는 데이터로서, 학습시킨 모델이 연령, 지출, 숙박여부, 동행자 수 , 성별 등의 변인들에 대해 사용자들에게 차별화된 추천이 가능한지 확인하는 Initial Data 리스트 이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TD-36-I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TD-37-I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TD-38-I</t>
+  </si>
+  <si>
+    <t>TD-39-I</t>
+  </si>
+  <si>
+    <t>TD-40-I</t>
+  </si>
+  <si>
+    <t>TD-41-I</t>
+  </si>
+  <si>
+    <t>TD-42-I</t>
+  </si>
+  <si>
+    <t>TD-43-I</t>
+  </si>
+  <si>
+    <t>TD-44-I</t>
+  </si>
+  <si>
+    <t>TD-45-I</t>
+  </si>
+  <si>
+    <t>TD-46-I</t>
+  </si>
+  <si>
+    <t>TD-47-I</t>
+  </si>
+  <si>
+    <t>TD-48-I</t>
+  </si>
+  <si>
+    <t>TD-49-I</t>
+  </si>
+  <si>
+    <t>TD-50-I</t>
+  </si>
+  <si>
+    <t>TD-51-I</t>
+  </si>
+  <si>
+    <t>TD-52-I</t>
+  </si>
+  <si>
+    <t>TD-53-I</t>
+  </si>
+  <si>
+    <t>TD-54-I</t>
+  </si>
+  <si>
+    <t>TD-55-I</t>
+  </si>
+  <si>
+    <t>TD-56-I</t>
+  </si>
+  <si>
+    <t>TD-57-I</t>
+  </si>
+  <si>
+    <t>TD-58-I</t>
   </si>
 </sst>
 </file>
@@ -448,7 +523,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -494,6 +569,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -508,9 +592,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -854,1038 +935,1110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47D1ADA-E514-4406-8E09-36A6254642BB}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="11.83203125" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="88" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="88" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
+    <row r="2" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C2" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>1</v>
-      </c>
       <c r="H4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="O4" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A5" s="17" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="M5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="N5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="O5" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="4" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A6" s="19"/>
+      <c r="B6" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="N6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="4" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A7" s="19"/>
+      <c r="B7" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="N7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="O7" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" s="16"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="7" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A8" s="19"/>
+      <c r="B8" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="7">
-        <v>1</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="I8" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="N8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="O8" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A9" s="16"/>
-      <c r="B9" s="19" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A9" s="19"/>
+      <c r="B9" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="6">
-        <v>1</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="I9" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="K9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="L9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="M9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="N9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="O9" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="4" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A10" s="19"/>
+      <c r="B10" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="L10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="M10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="N10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="O10" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="4" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A11" s="19"/>
+      <c r="B11" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="K11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="L11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="M11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="N11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="O11" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="4" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A12" s="19"/>
+      <c r="B12" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="J12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="K12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="L12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="M12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="N12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="O12" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="7" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A13" s="18"/>
+      <c r="B13" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="7">
-        <v>1</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="I13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="N13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="O13" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A14" s="14" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A14" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="6">
-        <v>1</v>
-      </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="H14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="I14" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="J14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="K14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="L14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="M14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M14" s="6" t="s">
+      <c r="N14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="O14" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A15" s="17"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="4" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A15" s="20"/>
+      <c r="B15" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="I15" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="J15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="K15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="L15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="M15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="N15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="O15" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A16" s="18"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="7" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A16" s="21"/>
+      <c r="B16" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="7">
-        <v>1</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="I16" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="N16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="O16" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A17" s="14" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A17" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="6">
-        <v>1</v>
-      </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="H17" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="I17" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="J17" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="K17" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="L17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="M17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M17" s="6" t="s">
+      <c r="N17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="N17" s="6" t="s">
+      <c r="O17" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A18" s="15"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="7" t="s">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A18" s="18"/>
+      <c r="B18" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="7">
-        <v>1</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="7">
+        <v>1</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="I18" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="M18" s="7" t="s">
+      <c r="N18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N18" s="7" t="s">
+      <c r="O18" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="14" t="s">
+    <row r="19" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="17" t="s">
         <v>49</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="E19" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="6">
-        <v>1</v>
-      </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="H19" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="6"/>
+      <c r="J19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="K19" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="L19" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="M19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M19" s="6" t="s">
+      <c r="N19" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N19" s="6" t="s">
+      <c r="O19" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A20" s="17"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="4" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A20" s="20"/>
+      <c r="B20" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="4">
-        <v>1</v>
-      </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="I20" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="J20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="K20" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="L20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="M20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="N20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="N20" s="4" t="s">
+      <c r="O20" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A21" s="17"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="4" t="s">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A21" s="20"/>
+      <c r="B21" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="4">
-        <v>1</v>
-      </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="J21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="K21" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="L21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="M21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M21" s="4" t="s">
+      <c r="N21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="N21" s="4" t="s">
+      <c r="O21" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A22" s="17"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="7" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A22" s="20"/>
+      <c r="B22" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="E22" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="7">
-        <v>1</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="7">
+        <v>1</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="I22" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M22" s="7" t="s">
+      <c r="N22" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="N22" s="7" t="s">
+      <c r="O22" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17" t="s">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A23" s="20"/>
+      <c r="B23" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="4">
-        <v>1</v>
-      </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="H23" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="4"/>
+      <c r="J23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="K23" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="L23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="M23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="N23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="O23" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A24" s="17"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="4" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A24" s="20"/>
+      <c r="B24" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="4">
-        <v>1</v>
-      </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="H24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="I24" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="J24" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="K24" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="L24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="M24" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M24" s="4" t="s">
+      <c r="N24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N24" s="4" t="s">
+      <c r="O24" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A25" s="18"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="7" t="s">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A25" s="21"/>
+      <c r="B25" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="7">
-        <v>1</v>
-      </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="7">
+        <v>1</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="I25" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M25" s="7" t="s">
+      <c r="N25" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N25" s="7" t="s">
+      <c r="O25" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A26" s="14" t="s">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A26" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="12" t="s">
+      <c r="B26" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="E26" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="12">
-        <v>1</v>
-      </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="12">
+        <v>1</v>
+      </c>
+      <c r="G26" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H26" s="12" t="s">
+      <c r="I26" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="I26" s="12" t="s">
+      <c r="J26" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="12" t="s">
+      <c r="K26" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="K26" s="12" t="s">
+      <c r="L26" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L26" s="12" t="s">
+      <c r="M26" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M26" s="12" t="s">
+      <c r="N26" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="N26" s="12" t="s">
+      <c r="O26" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A27" s="15"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="13" t="s">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A27" s="18"/>
+      <c r="B27" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="E27" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="13">
-        <v>1</v>
-      </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="13">
+        <v>1</v>
+      </c>
+      <c r="G27" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="H27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="I27" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="13" t="s">
+      <c r="J27" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="J27" s="13" t="s">
+      <c r="K27" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="K27" s="13" t="s">
+      <c r="L27" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="L27" s="13" t="s">
+      <c r="M27" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="M27" s="13" t="s">
+      <c r="N27" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="N27" s="13" t="s">
+      <c r="O27" s="13" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="E2:J3"/>
+    <mergeCell ref="F2:K3"/>
     <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C23:C25"/>
     <mergeCell ref="A19:A25"/>
     <mergeCell ref="A5:A13"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="C5:C8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TEST/Initial_Test_DATA.xlsx
+++ b/TEST/Initial_Test_DATA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGTSeo\Documents\GitHub\sinsudong-crusher-home_1\TEST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGTSeo\Documents\GitHub\sinsudong-crusher-home_1\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92C86DB-3D32-4295-97BB-39C48F1F7772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A9C865-5A33-4019-B4C8-8D5FC271099B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17620" xr2:uid="{D8C9DEB1-C547-4CCE-B61F-4D7B0E8883F6}"/>
   </bookViews>

--- a/TEST/Initial_Test_DATA.xlsx
+++ b/TEST/Initial_Test_DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGTSeo\Documents\GitHub\sinsudong-crusher-home_1\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A9C865-5A33-4019-B4C8-8D5FC271099B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9CC4083-2F68-44F4-9023-2C25887FF9F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17620" xr2:uid="{D8C9DEB1-C547-4CCE-B61F-4D7B0E8883F6}"/>
+    <workbookView xWindow="3040" yWindow="3040" windowWidth="19030" windowHeight="14440" xr2:uid="{D8C9DEB1-C547-4CCE-B61F-4D7B0E8883F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
